--- a/TnE/pizza_data.xlsx
+++ b/TnE/pizza_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3-evening\Documents\workspace-spring-tool-suite-4-4.7.0.RELEASE\pizza_a\TnE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAAF5E-AC67-46E6-842F-3AF2DF25B1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC28470-272B-4591-85DC-A5678A6DBA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2520" windowWidth="9930" windowHeight="11385" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>2020-09-29/8:58 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -478,13 +486,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +545,75 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -506,73 +622,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C75F8A-97E1-4505-A415-ADF9733B49C4}">
-  <dimension ref="B3:I42"/>
+  <dimension ref="B3:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,395 +968,406 @@
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <v>44103.817256944443</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E17" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20" t="s">
+    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E19" s="20">
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E22" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E23" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E24" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
-    </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E26" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E27" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E28" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-    </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E30" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E31" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22" t="s">
+    <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E32" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E36" s="25">
         <v>45713</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22" t="s">
+    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E37" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
+    <row r="38" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E40" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
+    <row r="41" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20" t="s">
+    <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E43" s="20">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
